--- a/medicine/Pharmacie/Office_national_de_sécurité_sanitaire_des_produits_alimentaires/Office_national_de_sécurité_sanitaire_des_produits_alimentaires.xlsx
+++ b/medicine/Pharmacie/Office_national_de_sécurité_sanitaire_des_produits_alimentaires/Office_national_de_sécurité_sanitaire_des_produits_alimentaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Office_national_de_s%C3%A9curit%C3%A9_sanitaire_des_produits_alimentaires</t>
+          <t>Office_national_de_sécurité_sanitaire_des_produits_alimentaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Office National de Sécurité Sanitaire des produits Alimentaires ou ONSSA est un organisme public marocain responsable de la sécurité sanitaire des produits alimentaires et de la conformité des aliments importés au Maroc. Il est placé sous la tutelle du ministère marocain de l'Agriculture et de la Pêche Maritime. Il est l'équivalent marocain de l'Anses, l'ACIA ou de la FDA.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Office_national_de_s%C3%A9curit%C3%A9_sanitaire_des_produits_alimentaires</t>
+          <t>Office_national_de_sécurité_sanitaire_des_produits_alimentaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Office est créé par la loi 25-08 publiée au bulletin officiel no 5714 en mars 2009.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Office_national_de_s%C3%A9curit%C3%A9_sanitaire_des_produits_alimentaires</t>
+          <t>Office_national_de_sécurité_sanitaire_des_produits_alimentaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Missions principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les missions principales de l'ONSSA sont les suivantes[1] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les missions principales de l'ONSSA sont les suivantes :  
 Homologation des pesticides
 Surveillance vétérinaire des animaux d’élevage
 Contrôle des aliments importés au Maroc
